--- a/02-PROJETOS/ProjetoFinal/Docs/caminho.xlsx
+++ b/02-PROJETOS/ProjetoFinal/Docs/caminho.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desenvolvimento\Documents\Carlos\senai\SENAI-2024-3DES\02-PROJETOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desenvolvimento\Documents\Carlos\senai\SENAI-2024-3DES\02-PROJETOS\ProjetoFinal\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D3D7DA-CBB1-4714-B694-5AC9944EEE2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA76B6D-44BB-4DA5-BDDD-4B601B007BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{F5DE8679-7197-46EF-8F92-79F9D9B6BB32}"/>
   </bookViews>
@@ -119,9 +119,6 @@
     <t>Nós</t>
   </si>
   <si>
-    <t>Duração</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -159,6 +156,9 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>Duração (dias)</t>
   </si>
 </sst>
 </file>
@@ -240,10 +240,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -583,7 +583,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -592,15 +592,15 @@
     <col min="2" max="2" width="4.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="19" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="6"/>
       <c r="C1" s="4" t="s">
         <v>25</v>
       </c>
@@ -608,7 +608,7 @@
         <v>26</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -619,9 +619,9 @@
         <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="6">
+        <v>27</v>
+      </c>
+      <c r="D2" s="5">
         <v>1</v>
       </c>
       <c r="E2" s="3">
@@ -636,10 +636,10 @@
         <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>40</v>
+        <v>27</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="E3" s="3">
         <v>14</v>
@@ -653,9 +653,9 @@
         <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="6">
+        <v>27</v>
+      </c>
+      <c r="D4" s="5">
         <v>3</v>
       </c>
       <c r="E4" s="3">
@@ -670,10 +670,10 @@
         <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="E5" s="3">
         <v>7</v>
@@ -687,10 +687,10 @@
         <v>16</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>32</v>
+        <v>27</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="E6" s="3">
         <v>7</v>
@@ -706,8 +706,8 @@
       <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>34</v>
+      <c r="D7" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="E7" s="3">
         <v>7</v>
@@ -721,10 +721,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>33</v>
+        <v>27</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
@@ -740,8 +740,8 @@
       <c r="C9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>35</v>
+      <c r="D9" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="E9" s="3">
         <v>3</v>
@@ -757,8 +757,8 @@
       <c r="C10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>36</v>
+      <c r="D10" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="E10" s="3">
         <v>14</v>
@@ -772,10 +772,10 @@
         <v>21</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>37</v>
+        <v>28</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="E11" s="3">
         <v>13</v>
@@ -789,10 +789,10 @@
         <v>22</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>38</v>
+        <v>28</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="E12" s="3">
         <v>13</v>
@@ -806,10 +806,10 @@
         <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>39</v>
+        <v>29</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="E13" s="3">
         <v>3</v>
